--- a/data/trans_bre/P15A-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P15A-Edad-trans_bre.xlsx
@@ -660,25 +660,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.4873532196906</v>
+        <v>-7.358300655343279</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.786140804779501</v>
+        <v>-4.838844024011578</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.140111557034016</v>
+        <v>-5.5099287880512</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.773879004641629</v>
+        <v>-2.859731875833473</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.8446764602654712</v>
+        <v>-0.8518174611890647</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.8081805067108644</v>
+        <v>-0.8052381710543383</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.9144194604053709</v>
+        <v>-0.9136363377222996</v>
       </c>
       <c r="J5" s="6" t="n">
         <v>-1</v>
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-2.016477747367792</v>
+        <v>-2.188651369723603</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.202080350696353</v>
+        <v>-0.3597943948993191</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.669852662391368</v>
+        <v>-0.9165074430828696</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.422914856728231</v>
+        <v>4.108476750444819</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.3629737458653274</v>
+        <v>-0.3656963288270497</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.003002269362212311</v>
+        <v>-0.02445440634669109</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.1505821955156292</v>
+        <v>-0.1602482272530622</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>11.95202616254185</v>
+        <v>6.848920484731264</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.972136277944118</v>
+        <v>-3.872345726432703</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.894631636775837</v>
+        <v>-5.230073606385472</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.956972055903405</v>
+        <v>-4.076299797381214</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-5.182450144992198</v>
+        <v>-5.324628309337196</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6662206425445784</v>
+        <v>-0.6663379812818203</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8239460923170056</v>
+        <v>-0.8143114969410415</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.8090894309614131</v>
+        <v>-0.8133777980201407</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.9325252704184692</v>
+        <v>-0.9225201184093756</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4154484795629209</v>
+        <v>0.4789362813347249</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.6900237149517761</v>
+        <v>-0.6239948195538982</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-0.2812400643177049</v>
+        <v>-0.3887124350537908</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-0.3001899528906288</v>
+        <v>-0.3556886295539504</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1441617753219663</v>
+        <v>0.1472572318233313</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1457748061938045</v>
+        <v>-0.1128440656376198</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.05539469369141115</v>
+        <v>-0.06991489971615533</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.0187308478060542</v>
+        <v>0.1001750890836998</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>-0.4400078942678122</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.1314893403745384</v>
+        <v>-0.1314893403745385</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.194303974230085</v>
+        <v>-2.01569816035069</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.222153235087855</v>
+        <v>-2.257067714633764</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.127640833512008</v>
+        <v>-3.048012951231369</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.744336014976036</v>
+        <v>-1.692982178761596</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6737282734336149</v>
+        <v>-0.6239948442052514</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.7027976871224341</v>
+        <v>-0.6928897876587884</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.7854688298664767</v>
+        <v>-0.7463463555842038</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.6402532590665776</v>
+        <v>-0.5934747813923867</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.177695162680693</v>
+        <v>1.228680996612386</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7792592794240307</v>
+        <v>0.7570307613430306</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4294220351173043</v>
+        <v>0.3901837031361295</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.14028445967074</v>
+        <v>1.162521215952282</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7698791700926156</v>
+        <v>0.8627250743206777</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6644678368636638</v>
+        <v>0.5706875105750006</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2478180911478742</v>
+        <v>0.26826116346364</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.176053688031224</v>
+        <v>1.219038698145315</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-0.3677597292051348</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-1.473713189695621</v>
+        <v>-1.47371318969562</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.5019707793288029</v>
@@ -949,7 +949,7 @@
         <v>-0.190662974967319</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.4583690058255844</v>
+        <v>-0.4583690058255842</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.930578170483136</v>
+        <v>-4.079310142748948</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1198919889147773</v>
+        <v>0.2147544471010913</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.950501898471613</v>
+        <v>-1.741768153364354</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-3.215812036146409</v>
+        <v>-3.509133339625908</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7801119766159123</v>
+        <v>-0.802387448280262</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.03556632947100003</v>
+        <v>-0.03529331070433048</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.7238585240269126</v>
+        <v>-0.6904877791673586</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7299442993613985</v>
+        <v>-0.7267366720312154</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09998544624147386</v>
+        <v>0.007697226757572638</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.895901404616076</v>
+        <v>3.71413417196759</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.060216221657863</v>
+        <v>1.117414146627465</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07327988990407444</v>
+        <v>0.02256487439192146</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1216925954118374</v>
+        <v>0.05524864683523332</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4.979712726349697</v>
+        <v>5.008216816328813</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.008408420300908</v>
+        <v>1.014257062203583</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.08019526956605734</v>
+        <v>0.06666712476533626</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.042241579346454</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.154605551817938</v>
+        <v>1.154605551817939</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008378331350597261</v>
@@ -1049,7 +1049,7 @@
         <v>2.377042498324723</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.9633669984482545</v>
+        <v>0.9633669984482548</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.154083779963057</v>
+        <v>-2.316849414377572</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3211402130606781</v>
+        <v>0.1550060928717069</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2200269204730661</v>
+        <v>0.2613029119812939</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.02119893442927131</v>
+        <v>-0.08408720851080857</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.601488384506335</v>
+        <v>-0.6575580316603836</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.07893540098715643</v>
+        <v>-0.1224817964723499</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1156240780286058</v>
+        <v>-0.0330467400818984</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1465933661197642</v>
+        <v>-0.1082774156811683</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.182411378352352</v>
+        <v>2.187293290589536</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.136040008486399</v>
+        <v>4.052150697702487</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.957545199314358</v>
+        <v>4.058322845966218</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.595106479203416</v>
+        <v>2.478403073758489</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.666291777894731</v>
+        <v>1.924495756288544</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>10.51120946480349</v>
+        <v>9.501375518877982</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>11.952500524096</v>
+        <v>12.71994928521447</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3.550016292095908</v>
+        <v>4.128058022677077</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-1.089280176452071</v>
+        <v>-1.261073433242348</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.5246806663854</v>
+        <v>-1.778945637947757</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6347973893140459</v>
+        <v>0.7362372827237889</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9735639972497686</v>
+        <v>0.8302764901285673</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.511023682536337</v>
+        <v>-0.550359344935472</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4471654035180298</v>
+        <v>-0.4780778466080561</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02393464310494637</v>
+        <v>0.1470548712183548</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.288575452719644</v>
+        <v>0.2083982277786225</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.254985844635748</v>
+        <v>3.134118143226315</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>3.855339468543427</v>
+        <v>3.496519928189345</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5.735619439440359</v>
+        <v>5.509417913227005</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4.44540026435328</v>
+        <v>4.2896218508397</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>5.733666617547603</v>
+        <v>4.463257892436054</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.19940552025314</v>
+        <v>2.575936537752737</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>8.138803544653994</v>
+        <v>8.488142806984726</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>4.566230550114159</v>
+        <v>4.094234380958985</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.04244753906105031</v>
+        <v>0.0687348974385857</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.888922979498899</v>
+        <v>-1.705039851616118</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.6376632597662482</v>
+        <v>-0.7538265533832048</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8490363170485453</v>
+        <v>0.7275412655176761</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.09473165618231941</v>
+        <v>-0.08528105719785029</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.3913175882059421</v>
+        <v>-0.3908724521745595</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.2195248129528653</v>
+        <v>-0.2178330981869254</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.1478427475992176</v>
+        <v>0.1091608942814841</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.771574590802599</v>
+        <v>7.431654334508278</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.953059082690806</v>
+        <v>4.605774528556479</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.440701984642985</v>
+        <v>5.392007573140703</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.137261216515446</v>
+        <v>5.168548020545572</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>6.391387041304759</v>
+        <v>6.68695752667467</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>2.422679375950593</v>
+        <v>2.557069180044633</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>2.720110925875622</v>
+        <v>2.729878249521497</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>2.50118292776131</v>
+        <v>2.360147104572772</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>-0.1564187685554639</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.331320906680218</v>
+        <v>0.3313209066802183</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.2609806728110414</v>
@@ -1349,7 +1349,7 @@
         <v>-0.05958184178642108</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.1421467479811015</v>
+        <v>0.1421467479811017</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-1.863488035422201</v>
+        <v>-1.820263526764278</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.9519785177997051</v>
+        <v>-0.9945777883986212</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.9835127791409757</v>
+        <v>-0.8917232177573206</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.4115432855571462</v>
+        <v>-0.3911738464739645</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4389529851420423</v>
+        <v>-0.4307174132605491</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2890712001453891</v>
+        <v>-0.2957880747240462</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3291581750583808</v>
+        <v>-0.2940237011968156</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1427588792632745</v>
+        <v>-0.1428755370837963</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-0.07374099512268341</v>
+        <v>-0.1141873058886405</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.7334943853481712</v>
+        <v>0.7183288362551769</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.5475056012354222</v>
+        <v>0.6127252754384429</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1.05421976833912</v>
+        <v>1.032906058792599</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.01360634543437068</v>
+        <v>-0.02272933965689299</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.290901746072637</v>
+        <v>0.3041801098265073</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2401544959597448</v>
+        <v>0.2754112844124136</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5663440216047487</v>
+        <v>0.5665649624379876</v>
       </c>
     </row>
     <row r="28">
